--- a/data_analysis/Fig_06_USS_Response_2018_SfS_VIS.xlsx
+++ b/data_analysis/Fig_06_USS_Response_2018_SfS_VIS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/Github_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AFCC53-D266-CB4C-9B85-1ADBC77F47B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1247DC07-E5EC-0649-85C9-1C80A2F3C97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="28060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Year</t>
   </si>
@@ -75,13 +75,7 @@
     <t>USS data ref capital exhaustion</t>
   </si>
   <si>
-    <t>assume asymptotes to capital exhaustion</t>
-  </si>
-  <si>
     <t>interpolation</t>
-  </si>
-  <si>
-    <t>assume same features as all other USS capital exhaustion curves</t>
   </si>
   <si>
     <t>Probability of the scheme running out of funds before all benefits are paid and probability of being unable to demonstrate an adequate funding position</t>
@@ -125,6 +119,18 @@
   <si>
     <t>Benefit payment failure: VIS</t>
   </si>
+  <si>
+    <t>asymptotes to capital exhaustion</t>
+  </si>
+  <si>
+    <t>same features as all other USS capital exhaustion curves</t>
+  </si>
+  <si>
+    <t>Used USS capital exhaustion profiles for interpolation</t>
+  </si>
+  <si>
+    <t>https://www.uss.co.uk/-/media/project/ussmainsite/files/news-and-views/briefings-and-analysis/uss-briefing-capital-funding-and-exhaustion-risk.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -185,6 +191,21 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -275,10 +296,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,8 +362,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2476,7 +2501,7 @@
   <dimension ref="A1:AE956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2494,10 +2519,10 @@
         <v>Funding test failure: VIS portfolio</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>8</v>
@@ -2761,7 +2786,7 @@
     <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2770,7 +2795,7 @@
     <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2779,7 +2804,7 @@
     <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -8455,7 +8480,7 @@
   </sheetPr>
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -8467,7 +8492,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -8490,13 +8515,13 @@
     </row>
     <row r="6" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -8522,7 +8547,7 @@
     </row>
     <row r="8" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -8606,7 +8631,7 @@
     </row>
     <row r="11" spans="1:24" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -8637,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -8690,7 +8715,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -9088,17 +9113,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9106,18 +9131,29 @@
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="32" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{D5161880-C2C8-BE4F-8E82-8C05F23D5F46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
